--- a/xlsx/友誼_intext.xlsx
+++ b/xlsx/友誼_intext.xlsx
@@ -29,7 +29,7 @@
     <t>友谊 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_外交政策_友誼</t>
+    <t>体育运动_体育运动_文化_友誼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8B%E5%8F%8B</t>
